--- a/Table/China_Espania.xlsx
+++ b/Table/China_Espania.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士\论文\JA5\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C9F8B-A24C-40A5-86A0-0E3A2DA482EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C9E807-C929-4BA9-B977-D76FE4BD4C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>nearmiss_harshacceleration</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,18 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nearmiss_overspeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nearmiss_highspeedbrake</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,30 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Variable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accelerator_pedal_position_mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpm_mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brakes_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>engine_fuel_rate_mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nearmiss_harshacceleration_under_50kmh_driver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,6 +176,130 @@
   </si>
   <si>
     <t>Spain Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harshacceleration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harshdeceleration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highspeedbrake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accelerator pedal position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engine fuel rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TripperDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TripsinNight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistanceinNight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistanceperTrip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TripsinDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TripsinWeekdays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TripsinWeekends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trips&lt;15m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15m&lt;Trips&lt;30m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30m&lt;Trips&lt;1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h&lt;Trips&lt;2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trips&gt;2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistanceinWeekdays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistanceinWeekends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistanceinDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Definition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -286,6 +374,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,469 +661,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="3" width="45.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="4"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
+      <c r="A12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D12" s="4"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
+      <c r="A13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="4"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
+      <c r="A14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="4"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
+      <c r="A15" s="6"/>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="4"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3" t="s">
+      <c r="C21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A19:A32"/>
+    <mergeCell ref="A33:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/China_Espania.xlsx
+++ b/Table/China_Espania.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\博士\论文\JA5\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C9E807-C929-4BA9-B977-D76FE4BD4C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEE46E1-D697-49D5-8E96-FCC3226D52D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
-  <si>
-    <t>nearmiss_harshacceleration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nearmiss_harshdeceleration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acceleration_mean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>headig_mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ntrips_per_day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nweekdays</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speedheading</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>distance_during_night</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,26 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nearmiss_harshacceleration_under_50kmh_driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nearmiss_harshdeceleration_above_120kmh_driver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance_weekday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance_weekend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>distance_per_trip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +260,200 @@
   </si>
   <si>
     <t>Definition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telematics-box unique identification number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum of speed (km/h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean of acceleration (m/s2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range of driving (geographical units)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean of speed (km/h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency of driving speed greater than 100km/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency of braking when the driving speed is greater than 90km/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of brakes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean of revolutions per minute (r/min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean of acceleration pedal position (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean of engine fuel rate (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency of cases when acceleration is greater than 6m/s2 and speed is under 50km/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency of cases when the acceleration is less than -6m/s2 and speed is above 120km/h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of driving days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of driving trips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average distance to the vehicle in front (m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of driving days in weekdays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of driving trips during the day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of driving trips in weekdays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of driving days in weekends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of driving trips in weekends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of trips with a driving time under 15 minutes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of trips with a driving time of 15 minutes or less than 30 minutes</t>
+  </si>
+  <si>
+    <t>Total number of trips with a driving time of more than 30 minutes and less than 1 hour</t>
+  </si>
+  <si>
+    <t>Total number of trips with driving time between 1 hour and 2 hours</t>
+  </si>
+  <si>
+    <t>Total number of trips with a driving time of more than 2 hours</t>
+  </si>
+  <si>
+    <t>Total driving distance (km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum driving distance per day (km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driving distance per trip (km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driving distance on weekdays (km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driving distance on weekends (km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total number of driving trips at night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driving distance at night (km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driving distance during the day (km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency of cases when the acceleration is greater than 6m/s2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Driving distance when driving speed is less than 50km/h (km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Driving distance when driving speed is greater than 120km/h (km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency of cases when the acceleration is less than -6m/s2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nearmiss_accel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nearmiss_accel_under_50kmh</t>
+  </si>
+  <si>
+    <t>nearmiss_brake_above_120kmh</t>
+  </si>
+  <si>
+    <t>nearmiss_brake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total fuel consumption (L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance_week_media</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance_weekend_media</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance_per_trip_media</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntrips_per_day_media</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accel_mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of driving trips per day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,9 +487,10 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Wingdings 2"/>
-      <family val="1"/>
-      <charset val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -346,7 +501,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -354,32 +509,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,406 +848,494 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="3" width="45.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="C12" s="5" t="s">
+      <c r="D32" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="C13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="C14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="C15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="C16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="3" t="s">
+      <c r="C38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="3" t="s">
+      <c r="D39" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="3" t="s">
+      <c r="D40" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="7" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="A19:A32"/>
-    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="A18:A31"/>
+    <mergeCell ref="A32:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
